--- a/WIP/equaliserVacc/outputvac.xlsx
+++ b/WIP/equaliserVacc/outputvac.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Thesis\Covid Mechanistic Model\GIT\Stochastic-Covid-Sim\Deliverable\Vaccination\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Thesis\Covid Mechanistic Model\GIT\Stochastic-Covid-Sim\WIP\equaliserVacc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7499A635-825C-48AD-9404-814D167E0572}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A56CDFD8-7707-4D5F-A0B5-AD58768DBBC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1480" yWindow="1480" windowWidth="14400" windowHeight="7270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -447,11 +447,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H1" sqref="A1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="10.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="18.90625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
